--- a/result/conll04_datasize.xlsx
+++ b/result/conll04_datasize.xlsx
@@ -719,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +733,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1056,7 +1059,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1132,10 +1135,10 @@
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>739</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="6">
         <v>186</v>
       </c>
     </row>
@@ -1176,11 +1179,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E8" s="4">
+        <v>99.38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1192,11 +1198,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E10" s="4">
+        <v>91.86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1208,11 +1217,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E12" s="4">
+        <v>98.39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1224,11 +1236,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E14" s="4">
+        <v>99.37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1240,10 +1255,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="3:6">
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E16" s="5">
+        <v>92.05</v>
+      </c>
+      <c r="F16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/result/conll04_datasize.xlsx
+++ b/result/conll04_datasize.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>num_epochs</t>
   </si>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t>Att-Pooling-CNN</t>
+  </si>
+  <si>
+    <t>F1-score</t>
+  </si>
+  <si>
+    <t>PR-value</t>
+  </si>
+  <si>
+    <t>SSL-KAS-MuBiGRU</t>
+  </si>
+  <si>
+    <t>ANA-SL-ELMO（300）</t>
+  </si>
+  <si>
+    <t>ANA-SL-ELMO（1324）</t>
   </si>
 </sst>
 </file>
@@ -1056,20 +1071,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="23.125" customWidth="1"/>
     <col min="7" max="7" width="14"/>
+    <col min="8" max="8" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
@@ -1264,6 +1280,144 @@
       </c>
       <c r="F16" s="4"/>
     </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18"/>
+      <c r="G18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5">
+        <v>90.18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.974581217712</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>75.8</v>
+      </c>
+      <c r="H19">
+        <v>0.838012917882</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5">
+        <v>91.86</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.975361971745</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20">
+        <v>74.7</v>
+      </c>
+      <c r="H20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5">
+        <v>94.68</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.961788158283</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>75.9</v>
+      </c>
+      <c r="H21">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5">
+        <v>96.48</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.993782694884</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5">
+        <v>92.05</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.97885605829</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5">
+        <v>97.76</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.991923815303</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.996245550597</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5">
+        <v>98.14</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.997513516532</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5">
+        <v>96.82</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.996245550597</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.991923815303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/result/conll04_datasize.xlsx
+++ b/result/conll04_datasize.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>num_epochs</t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>ANA-SL-ELMO（1324）</t>
+  </si>
+  <si>
+    <t>cl_lambda</t>
+  </si>
+  <si>
+    <t>ANA-CL-ELMO(entropy + cl)</t>
+  </si>
+  <si>
+    <t>neg_loss</t>
+  </si>
+  <si>
+    <t>neg_loss+sl</t>
   </si>
 </sst>
 </file>
@@ -284,12 +296,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -589,103 +607,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -694,7 +712,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,7 +721,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,7 +730,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,14 +745,14 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,6 +769,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1071,15 +1098,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
@@ -1151,10 +1178,10 @@
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="9">
         <v>739</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="9">
         <v>186</v>
       </c>
     </row>
@@ -1418,6 +1445,318 @@
         <v>0.991923815303</v>
       </c>
     </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2">
+        <v>300</v>
+      </c>
+      <c r="D30" s="2">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="H30">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>98.11</v>
+      </c>
+      <c r="J30" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="2">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2">
+        <v>300</v>
+      </c>
+      <c r="D31" s="2">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="H31">
+        <v>0.001</v>
+      </c>
+      <c r="I31" s="2">
+        <v>97.72</v>
+      </c>
+      <c r="J31" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="2">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2">
+        <v>300</v>
+      </c>
+      <c r="D32" s="2">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>98.24</v>
+      </c>
+      <c r="J32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2">
+        <v>300</v>
+      </c>
+      <c r="D34" s="2">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>95.82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="2">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2">
+        <v>300</v>
+      </c>
+      <c r="D35" s="2">
+        <v>100</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>96.56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="2">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2">
+        <v>300</v>
+      </c>
+      <c r="D36" s="2">
+        <v>100</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>97.72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2">
+        <v>300</v>
+      </c>
+      <c r="D37" s="2">
+        <v>100</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.003</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>95.82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="2">
+        <v>50</v>
+      </c>
+      <c r="C38" s="2">
+        <v>300</v>
+      </c>
+      <c r="D38" s="2">
+        <v>100</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.001</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>97.72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="2">
+        <v>20</v>
+      </c>
+      <c r="C39" s="2">
+        <v>300</v>
+      </c>
+      <c r="D39" s="2">
+        <v>100</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0.001</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>96.11</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+      <c r="C41" s="2">
+        <v>300</v>
+      </c>
+      <c r="D41" s="2">
+        <v>100</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0.001</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/result/conll04_datasize.xlsx
+++ b/result/conll04_datasize.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>num_epochs</t>
   </si>
@@ -91,6 +91,9 @@
     <t>ANA-SL-ELMO（1324）</t>
   </si>
   <si>
+    <t>SSL-KAS-MuBiGRU+++</t>
+  </si>
+  <si>
     <t>cl_lambda</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
     <t>neg_loss</t>
   </si>
   <si>
-    <t>neg_loss+sl</t>
+    <t>neg_loss（-feature）+sl</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,6 +781,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1098,10 +1104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1178,10 +1184,10 @@
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="10">
         <v>739</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="10">
         <v>186</v>
       </c>
     </row>
@@ -1433,7 +1439,7 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C26" s="5">
         <v>96.82</v>
@@ -1465,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>6</v>
@@ -1476,7 +1482,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2">
         <v>50</v>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2">
         <v>50</v>
@@ -1731,9 +1737,9 @@
     <row r="40" spans="5:5">
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B41">
         <v>50</v>
@@ -1755,6 +1761,99 @@
       </c>
       <c r="H41" s="2">
         <v>1</v>
+      </c>
+      <c r="I41">
+        <v>97.05</v>
+      </c>
+      <c r="J41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>300</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>0.002</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>0.01</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="9">
+        <v>97.64</v>
+      </c>
+      <c r="J42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43">
+        <v>30</v>
+      </c>
+      <c r="C43" s="2">
+        <v>300</v>
+      </c>
+      <c r="D43" s="2">
+        <v>100</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="9">
+        <v>98.14</v>
+      </c>
+      <c r="J43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="2">
+        <v>30</v>
+      </c>
+      <c r="C44" s="2">
+        <v>300</v>
+      </c>
+      <c r="D44" s="2">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>98.25</v>
+      </c>
+      <c r="J44">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
